--- a/Student_data.xlsx
+++ b/Student_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Bansi\CP-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Bansi\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A326DCFA-ED5A-4625-B6BA-6B8FC24838CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD00F8-9BE1-4B0D-ADDD-D5A70797CA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E00787AF-A150-47F6-94DF-36BBDB0559EF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="9960" xr2:uid="{E00787AF-A150-47F6-94DF-36BBDB0559EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -45,56 +45,167 @@
     <t>Password</t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>johndoe@example.com</t>
-  </si>
-  <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>janesmith@example.com</t>
-  </si>
-  <si>
-    <t>pass456</t>
-  </si>
-  <si>
-    <t>Alex Johnson</t>
-  </si>
-  <si>
-    <t>alexjohnson@example.com</t>
-  </si>
-  <si>
-    <t>pass789</t>
-  </si>
-  <si>
-    <t>Emily Davis</t>
-  </si>
-  <si>
-    <t>emilydavis@example.com</t>
-  </si>
-  <si>
-    <t>pass101</t>
-  </si>
-  <si>
-    <t>Michael Lee</t>
-  </si>
-  <si>
-    <t>michaellee@example.com</t>
-  </si>
-  <si>
-    <t>pass202</t>
+    <t>Bansi Vachhani</t>
+  </si>
+  <si>
+    <t>Riya Mehta</t>
+  </si>
+  <si>
+    <t>Arjun Verma</t>
+  </si>
+  <si>
+    <t>Kavya Shah</t>
+  </si>
+  <si>
+    <t>Jay Patel</t>
+  </si>
+  <si>
+    <t>Hetal Desai</t>
+  </si>
+  <si>
+    <t>Aarav Trivedi</t>
+  </si>
+  <si>
+    <t>Parul Joshi</t>
+  </si>
+  <si>
+    <t>Nisha Solanki</t>
+  </si>
+  <si>
+    <t>Bhavya Mehta</t>
+  </si>
+  <si>
+    <t>Krishna Parekh</t>
+  </si>
+  <si>
+    <t>Mihir Thakkar</t>
+  </si>
+  <si>
+    <t>Dhara Patel</t>
+  </si>
+  <si>
+    <t>Rakesh Modi</t>
+  </si>
+  <si>
+    <t>Kiran Shah</t>
+  </si>
+  <si>
+    <t>Sneha Vyas</t>
+  </si>
+  <si>
+    <t>Mansi Dave</t>
+  </si>
+  <si>
+    <t>Hardik Mehta</t>
+  </si>
+  <si>
+    <t>Vivek Parmar</t>
+  </si>
+  <si>
+    <t>Rajvi Bhatt</t>
+  </si>
+  <si>
+    <t>Pranav Shah</t>
+  </si>
+  <si>
+    <t>Disha Chauhan</t>
+  </si>
+  <si>
+    <t>Yashvi Patel</t>
+  </si>
+  <si>
+    <t>Tushar Vora</t>
+  </si>
+  <si>
+    <t>Nilesh Joshi</t>
+  </si>
+  <si>
+    <t>bansi.vachhani@college.com</t>
+  </si>
+  <si>
+    <t>riya.mehta@college.com</t>
+  </si>
+  <si>
+    <t>arjun.verma@college.com</t>
+  </si>
+  <si>
+    <t>kavya.shah@college.com</t>
+  </si>
+  <si>
+    <t>jay.patel@college.com</t>
+  </si>
+  <si>
+    <t>hetal.desai@college.com</t>
+  </si>
+  <si>
+    <t>aarav.trivedi@college.com</t>
+  </si>
+  <si>
+    <t>parul.joshi@college.com</t>
+  </si>
+  <si>
+    <t>nisha.solanki@college.com</t>
+  </si>
+  <si>
+    <t>bhavya.mehta@college.com</t>
+  </si>
+  <si>
+    <t>krishna.parekh@college.com</t>
+  </si>
+  <si>
+    <t>mihir.thakkar@college.com</t>
+  </si>
+  <si>
+    <t>dhara.patel@college.com</t>
+  </si>
+  <si>
+    <t>rakesh.modi@college.com</t>
+  </si>
+  <si>
+    <t>kiran.shah@college.com</t>
+  </si>
+  <si>
+    <t>sneha.vyas@college.com</t>
+  </si>
+  <si>
+    <t>mansi.dave@college.com</t>
+  </si>
+  <si>
+    <t>hardik.mehta@college.com</t>
+  </si>
+  <si>
+    <t>vivek.parmar@college.com</t>
+  </si>
+  <si>
+    <t>rajvi.bhatt@college.com</t>
+  </si>
+  <si>
+    <t>pranav.shah@college.com</t>
+  </si>
+  <si>
+    <t>disha.chauhan@college.com</t>
+  </si>
+  <si>
+    <t>yashvi.patel@college.com</t>
+  </si>
+  <si>
+    <t>tushar.vora@college.com</t>
+  </si>
+  <si>
+    <t>nilesh.joshi@college.com</t>
+  </si>
+  <si>
+    <t>password123</t>
+  </si>
+  <si>
+    <t>Semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,10 +221,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,19 +269,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2180EB88-751B-4AF2-92BF-645D4525FBE1}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,9 +606,10 @@
     <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,64 +619,365 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{50158602-B038-48EB-9E05-DBC33351C9F7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>